--- a/src/zxxt_04_excel.xlsx.w3mi.data.xlsx
+++ b/src/zxxt_04_excel.xlsx.w3mi.data.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Desktop\xtt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_WHOLE_LIST">Sheet1!$B$9:$I$10</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Molda_B</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>{R-DATE}</t>
   </si>
@@ -92,15 +95,18 @@
   </si>
   <si>
     <t>{R-U-MSEHL}</t>
+  </si>
+  <si>
+    <t>Formula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -460,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -576,14 +582,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -592,27 +631,25 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,19 +698,35 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1028,11 +1081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1042,79 +1095,100 @@
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="8" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="13">
+        <f>ROW(B$10)</f>
+        <v>10</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/zxxt_04_excel.xlsx.w3mi.data.xlsx
+++ b/src/zxxt_04_excel.xlsx.w3mi.data.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Same data in different sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_WHOLE_LIST">Sheet1!$B$9:$I$10</definedName>
+    <definedName name="UNITS_LIST">Sheet1!$B$9:$I$10</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>{R-DATE}</t>
   </si>
@@ -98,6 +99,24 @@
   </si>
   <si>
     <t>Formula</t>
+  </si>
+  <si>
+    <t>{R-C-LANDX}</t>
+  </si>
+  <si>
+    <t>{R-C-LAND1}</t>
+  </si>
+  <si>
+    <t>Country Key</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>Text (Merged cells)</t>
+  </si>
+  <si>
+    <t>Press Ctrl + F3 to see defined names</t>
   </si>
 </sst>
 </file>
@@ -285,7 +304,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +482,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -698,7 +723,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -706,6 +731,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,6 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -772,7 +800,46 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -783,6 +850,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E7D8E86E-06D4-462C-BF74-B008D1369F8F}" name="TB_COUNTRY" displayName="TB_COUNTRY" ref="B13:C14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B13:C14" xr:uid="{0A896401-34F4-4F5A-B425-15BD837D8800}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B67D84ED-A54A-402D-8CDF-3A1F4C4E6E17}" name="Country Key"/>
+    <tableColumn id="2" xr3:uid="{DF6B8C65-60F7-400B-AE30-D6FD6934588E}" name="Country Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6192F32B-E2FB-43D0-8274-5C6F60352E1F}" name="TB_UNIT" displayName="TB_UNIT" ref="B2:C3" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B2:C3" xr:uid="{878B8CCB-7E3B-4768-A14E-600D4D606D07}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CE16F048-3933-434A-9E71-52BBF2D168B9}" name="Unit of Measurement"/>
+    <tableColumn id="2" xr3:uid="{5E2FA219-B19D-495E-AFE9-B6A3238872AF}" name="Text"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,104 +1171,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I10"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="11"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="13">
+      <c r="D10" s="11"/>
+      <c r="E10" s="15">
         <f>ROW(B$10)</f>
         <v>10</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1193,5 +1302,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7951496-A634-4326-9954-E9F3F12C07F4}">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>